--- a/k_results_decomposition.xlsx
+++ b/k_results_decomposition.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1f4e52737174c835/Dokumenter/DTU/Optimalization in modern Power Systems/optimization_code/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_6DED06324031921FD2FE31D2F8F2D3C2A452D608" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C70B454C-CDD5-46E7-9798-6422A2DFD482}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="11110" yWindow="0" windowWidth="11380" windowHeight="13370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -49,8 +55,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,13 +119,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -157,7 +171,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -191,6 +205,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -225,9 +240,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -400,14 +416,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="11.453125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -430,7 +451,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1500000</v>
       </c>
@@ -441,7 +462,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>10000000</v>
       </c>
@@ -449,7 +470,7 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>-2593924273.244156</v>
+        <v>-2540830475.742485</v>
       </c>
       <c r="D3">
         <v>12.0644725412605</v>
@@ -458,10 +479,10 @@
         <v>2</v>
       </c>
       <c r="F3">
-        <v>4.437355799993384</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>4.5738280000077793</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>10000000</v>
       </c>
@@ -469,7 +490,7 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>-2593924273.244156</v>
+        <v>-2540830475.742485</v>
       </c>
       <c r="D4">
         <v>12.0644725412605</v>
@@ -478,10 +499,10 @@
         <v>2</v>
       </c>
       <c r="F4">
-        <v>4.064896199997747</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>4.1111263000057079</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>15000000</v>
       </c>
@@ -489,19 +510,19 @@
         <v>7</v>
       </c>
       <c r="C5">
-        <v>-2624353816.835186</v>
+        <v>-2544713120.5826802</v>
       </c>
       <c r="D5">
-        <v>18.09670881189074</v>
+        <v>18.096708811890739</v>
       </c>
       <c r="E5">
         <v>2</v>
       </c>
       <c r="F5">
-        <v>4.27215960000467</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>4.3726867999939714</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>15000000</v>
       </c>
@@ -509,19 +530,19 @@
         <v>8</v>
       </c>
       <c r="C6">
-        <v>-2624353816.835186</v>
+        <v>-2544713120.5826802</v>
       </c>
       <c r="D6">
-        <v>18.09670881189074</v>
+        <v>18.096708811890739</v>
       </c>
       <c r="E6">
         <v>2</v>
       </c>
       <c r="F6">
-        <v>4.232226200008881</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>4.1617909999913536</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>100000000</v>
       </c>
@@ -529,7 +550,7 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>-3141656057.882689</v>
+        <v>-2610718082.8659849</v>
       </c>
       <c r="D7">
         <v>120.644725412605</v>
@@ -538,10 +559,10 @@
         <v>2</v>
       </c>
       <c r="F7">
-        <v>4.536767899990082</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>4.5177854999928968</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>100000000</v>
       </c>
@@ -549,7 +570,7 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>-3141656057.882689</v>
+        <v>-2610718082.8659849</v>
       </c>
       <c r="D8">
         <v>120.644725412605</v>
@@ -558,10 +579,10 @@
         <v>2</v>
       </c>
       <c r="F8">
-        <v>4.135162399994442</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>4.332676400008495</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>200000000</v>
       </c>
@@ -569,19 +590,19 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>-3750246929.70328</v>
+        <v>-2688370979.6698732</v>
       </c>
       <c r="D9">
-        <v>241.2894508252099</v>
+        <v>241.28945082520991</v>
       </c>
       <c r="E9">
         <v>2</v>
       </c>
       <c r="F9">
-        <v>3.980953700011014</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>4.0532067000021934</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>200000000</v>
       </c>
@@ -589,19 +610,19 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>-3750246929.703279</v>
+        <v>-2688370979.6698732</v>
       </c>
       <c r="D10">
-        <v>241.2894508252099</v>
+        <v>241.28945082520991</v>
       </c>
       <c r="E10">
         <v>2</v>
       </c>
       <c r="F10">
-        <v>4.252947700006189</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>4.3127082999999402</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>300000000</v>
       </c>
@@ -609,7 +630,7 @@
         <v>7</v>
       </c>
       <c r="C11">
-        <v>-3794187190.648727</v>
+        <v>-2693977518.8191099</v>
       </c>
       <c r="D11">
         <v>250</v>
@@ -618,10 +639,10 @@
         <v>2</v>
       </c>
       <c r="F11">
-        <v>3.977119200004381</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>4.2130755999969551</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>300000000</v>
       </c>
@@ -629,7 +650,7 @@
         <v>8</v>
       </c>
       <c r="C12">
-        <v>-3794187190.648727</v>
+        <v>-2693977518.8191142</v>
       </c>
       <c r="D12">
         <v>250</v>
@@ -638,10 +659,10 @@
         <v>2</v>
       </c>
       <c r="F12">
-        <v>4.197983900012332</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>4.0693752999941353</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>400000000</v>
       </c>
@@ -649,7 +670,7 @@
         <v>7</v>
       </c>
       <c r="C13">
-        <v>-3794187190.648727</v>
+        <v>-2693977518.8191099</v>
       </c>
       <c r="D13">
         <v>250</v>
@@ -658,10 +679,10 @@
         <v>2</v>
       </c>
       <c r="F13">
-        <v>3.975355799993849</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>4.3446166000067024</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>400000000</v>
       </c>
@@ -669,7 +690,7 @@
         <v>8</v>
       </c>
       <c r="C14">
-        <v>-3794187190.648727</v>
+        <v>-2693977518.8191142</v>
       </c>
       <c r="D14">
         <v>250</v>
@@ -678,10 +699,10 @@
         <v>2</v>
       </c>
       <c r="F14">
-        <v>4.294374000004609</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>4.0804540000099223</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>500000000</v>
       </c>
@@ -689,7 +710,7 @@
         <v>7</v>
       </c>
       <c r="C15">
-        <v>-3794187190.648727</v>
+        <v>-2693977518.8191142</v>
       </c>
       <c r="D15">
         <v>250</v>
@@ -698,10 +719,10 @@
         <v>2</v>
       </c>
       <c r="F15">
-        <v>4.375703600002453</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>4.2391526999999769</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>500000000</v>
       </c>
@@ -709,7 +730,7 @@
         <v>8</v>
       </c>
       <c r="C16">
-        <v>-3794187190.648727</v>
+        <v>-2693977518.8191142</v>
       </c>
       <c r="D16">
         <v>250</v>
@@ -718,10 +739,10 @@
         <v>2</v>
       </c>
       <c r="F16">
-        <v>4.057205500008422</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>4.0611461000080453</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>600000000</v>
       </c>
@@ -729,7 +750,7 @@
         <v>7</v>
       </c>
       <c r="C17">
-        <v>-3794187190.648727</v>
+        <v>-2693977518.8191142</v>
       </c>
       <c r="D17">
         <v>250</v>
@@ -738,10 +759,10 @@
         <v>2</v>
       </c>
       <c r="F17">
-        <v>4.173780500001158</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>4.243228999999701</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>600000000</v>
       </c>
@@ -749,7 +770,7 @@
         <v>8</v>
       </c>
       <c r="C18">
-        <v>-3794187190.648727</v>
+        <v>-2693977518.8191142</v>
       </c>
       <c r="D18">
         <v>250</v>
@@ -758,10 +779,10 @@
         <v>2</v>
       </c>
       <c r="F18">
-        <v>4.184106500004418</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>4.1182298000057926</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>700000000</v>
       </c>
@@ -769,7 +790,7 @@
         <v>7</v>
       </c>
       <c r="C19">
-        <v>-3794187190.648727</v>
+        <v>-2693977518.8191142</v>
       </c>
       <c r="D19">
         <v>250</v>
@@ -778,10 +799,10 @@
         <v>2</v>
       </c>
       <c r="F19">
-        <v>4.062346799997613</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>4.0753417999949306</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>700000000</v>
       </c>
@@ -789,7 +810,7 @@
         <v>8</v>
       </c>
       <c r="C20">
-        <v>-3794187190.648727</v>
+        <v>-2693977518.8191142</v>
       </c>
       <c r="D20">
         <v>250</v>
@@ -798,10 +819,10 @@
         <v>2</v>
       </c>
       <c r="F20">
-        <v>4.317703799999435</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>4.4712665999977617</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>800000000</v>
       </c>
@@ -809,7 +830,7 @@
         <v>7</v>
       </c>
       <c r="C21">
-        <v>-3794187190.648727</v>
+        <v>-2693977518.8191142</v>
       </c>
       <c r="D21">
         <v>250</v>
@@ -818,10 +839,10 @@
         <v>2</v>
       </c>
       <c r="F21">
-        <v>4.023150499997428</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>4.2939379000017652</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>800000000</v>
       </c>
@@ -829,7 +850,7 @@
         <v>8</v>
       </c>
       <c r="C22">
-        <v>-3794187190.648727</v>
+        <v>-2693977518.8191142</v>
       </c>
       <c r="D22">
         <v>250</v>
@@ -838,7 +859,7 @@
         <v>2</v>
       </c>
       <c r="F22">
-        <v>4.262797599993064</v>
+        <v>4.3461344999959692</v>
       </c>
     </row>
   </sheetData>
